--- a/tables/TableS7_simulated_bloom_design.xlsx
+++ b/tables/TableS7_simulated_bloom_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DFB766-F235-8D41-88A3-F1C36B3188A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAE4E68-3E06-1D42-8074-060CBA1611CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="560" windowWidth="30420" windowHeight="15600" activeTab="1" xr2:uid="{8F65658D-0848-E744-8181-42A1E11BC0FA}"/>
+    <workbookView xWindow="3940" yWindow="7200" windowWidth="30420" windowHeight="15600" activeTab="1" xr2:uid="{8F65658D-0848-E744-8181-42A1E11BC0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Formatted" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,19 +711,19 @@
         <v>75</v>
       </c>
       <c r="M2" s="6">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N2" s="6">
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="O2" s="6">
-        <v>45</v>
+        <v>45.5</v>
       </c>
       <c r="P2" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R2" s="6">
         <v>1</v>
@@ -770,25 +770,25 @@
         <v>100</v>
       </c>
       <c r="M3" s="5">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="N3" s="6">
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="O3" s="6">
-        <v>45</v>
+        <v>45.5</v>
       </c>
       <c r="P3" s="6">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R3" s="6">
         <v>1</v>
       </c>
       <c r="S3" s="6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -829,25 +829,25 @@
         <v>150</v>
       </c>
       <c r="M4" s="5">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N4" s="6">
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="O4" s="6">
-        <v>45</v>
+        <v>45.5</v>
       </c>
       <c r="P4" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="6">
         <v>60</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>70</v>
       </c>
       <c r="R4" s="6">
         <v>1</v>
       </c>
       <c r="S4" s="6">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">

--- a/tables/TableS7_simulated_bloom_design.xlsx
+++ b/tables/TableS7_simulated_bloom_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAE4E68-3E06-1D42-8074-060CBA1611CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD97BD36-6EB8-8547-A627-2B5681DB8775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="7200" windowWidth="30420" windowHeight="15600" activeTab="1" xr2:uid="{8F65658D-0848-E744-8181-42A1E11BC0FA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{8F65658D-0848-E744-8181-42A1E11BC0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Formatted" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Bloom</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>span_y_hi</t>
+  </si>
+  <si>
+    <t>span_lo</t>
+  </si>
+  <si>
+    <t>span_hi</t>
   </si>
 </sst>
 </file>
@@ -599,258 +605,282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36407D88-BFE0-8C4D-9C5C-0EAE5D42A991}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.1640625" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="D2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="4">
         <v>25</v>
       </c>
-      <c r="E2" s="4">
+      <c r="G2" s="4">
         <v>50</v>
       </c>
-      <c r="F2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.8</v>
-      </c>
       <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
         <v>0.3</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0.4</v>
       </c>
       <c r="K2" s="5">
         <v>0.6</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="N2" s="4">
         <v>75</v>
       </c>
-      <c r="M2" s="6">
+      <c r="O2" s="6">
         <v>250</v>
       </c>
-      <c r="N2" s="6">
+      <c r="P2" s="6">
         <v>42.5</v>
       </c>
-      <c r="O2" s="6">
+      <c r="Q2" s="6">
         <v>45.5</v>
       </c>
-      <c r="P2" s="6">
+      <c r="R2" s="6">
         <v>10</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="S2" s="6">
         <v>40</v>
       </c>
-      <c r="R2" s="6">
+      <c r="T2" s="6">
         <v>1</v>
       </c>
-      <c r="S2" s="6">
+      <c r="U2" s="6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>50</v>
+      </c>
+      <c r="G3" s="4">
+        <v>75</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K3" s="5">
         <v>0.6</v>
       </c>
-      <c r="C3" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="L3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="N3" s="5">
+        <v>100</v>
+      </c>
+      <c r="O3" s="5">
+        <v>250</v>
+      </c>
+      <c r="P3" s="6">
+        <v>42.5</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>45.5</v>
+      </c>
+      <c r="R3" s="6">
+        <v>10</v>
+      </c>
+      <c r="S3" s="6">
         <v>50</v>
       </c>
-      <c r="E3" s="4">
-        <v>75</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="L3" s="5">
-        <v>100</v>
-      </c>
-      <c r="M3" s="5">
-        <v>250</v>
-      </c>
-      <c r="N3" s="6">
-        <v>42.5</v>
-      </c>
-      <c r="O3" s="6">
-        <v>45.5</v>
-      </c>
-      <c r="P3" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>50</v>
-      </c>
-      <c r="R3" s="6">
+      <c r="T3" s="6">
         <v>1</v>
       </c>
-      <c r="S3" s="6">
+      <c r="U3" s="6">
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="4">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>75</v>
       </c>
-      <c r="E4" s="3">
+      <c r="G4" s="3">
         <v>125</v>
       </c>
-      <c r="F4" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="M4" s="5">
         <v>0.8</v>
       </c>
-      <c r="H4" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="L4" s="5">
+      <c r="N4" s="5">
         <v>150</v>
       </c>
-      <c r="M4" s="5">
+      <c r="O4" s="5">
         <v>250</v>
       </c>
-      <c r="N4" s="6">
+      <c r="P4" s="6">
         <v>42.5</v>
       </c>
-      <c r="O4" s="6">
+      <c r="Q4" s="6">
         <v>45.5</v>
       </c>
-      <c r="P4" s="6">
+      <c r="R4" s="6">
         <v>10</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="S4" s="6">
         <v>60</v>
       </c>
-      <c r="R4" s="6">
+      <c r="T4" s="6">
         <v>1</v>
       </c>
-      <c r="S4" s="6">
+      <c r="U4" s="6">
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -863,8 +893,10 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -877,6 +909,8 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables/TableS7_simulated_bloom_design.xlsx
+++ b/tables/TableS7_simulated_bloom_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD97BD36-6EB8-8547-A627-2B5681DB8775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C61128-75FA-0141-85E0-F8BB3AAA134B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{8F65658D-0848-E744-8181-42A1E11BC0FA}"/>
+    <workbookView xWindow="2000" yWindow="560" windowWidth="25600" windowHeight="15540" xr2:uid="{8F65658D-0848-E744-8181-42A1E11BC0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Formatted" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>Bloom</t>
   </si>
@@ -40,33 +40,12 @@
     <t>Large</t>
   </si>
   <si>
-    <t>Northern limit</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
     <t>Initial intensity</t>
   </si>
   <si>
-    <t>Mid-season event</t>
-  </si>
-  <si>
-    <t>Center X</t>
-  </si>
-  <si>
-    <t>Center Y</t>
-  </si>
-  <si>
-    <t>Center intensity</t>
-  </si>
-  <si>
-    <t>Span X</t>
-  </si>
-  <si>
-    <t>Span Y</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
@@ -137,13 +116,103 @@
   </si>
   <si>
     <t>span_hi</t>
+  </si>
+  <si>
+    <t>Lat. Span</t>
+  </si>
+  <si>
+    <t>1-1.5°</t>
+  </si>
+  <si>
+    <t>2-2.5°</t>
+  </si>
+  <si>
+    <t>4°</t>
+  </si>
+  <si>
+    <t>0.6-0.8</t>
+  </si>
+  <si>
+    <t>0.7-0.9</t>
+  </si>
+  <si>
+    <t>0.8-1.0</t>
+  </si>
+  <si>
+    <t>25-50 days</t>
+  </si>
+  <si>
+    <t>50-75 day</t>
+  </si>
+  <si>
+    <t>75-125 days</t>
+  </si>
+  <si>
+    <t>N. Duration</t>
+  </si>
+  <si>
+    <t>S. Duration</t>
+  </si>
+  <si>
+    <t>Day 75-250</t>
+  </si>
+  <si>
+    <t>Day 100-250</t>
+  </si>
+  <si>
+    <t>Day 150-250</t>
+  </si>
+  <si>
+    <t>Day of peak</t>
+  </si>
+  <si>
+    <t>Lat of peak</t>
+  </si>
+  <si>
+    <t>Peak intensity</t>
+  </si>
+  <si>
+    <t>42.5-45.5°N</t>
+  </si>
+  <si>
+    <t>0.4-0.6</t>
+  </si>
+  <si>
+    <t>0.5-0.7</t>
+  </si>
+  <si>
+    <t>10-40 days</t>
+  </si>
+  <si>
+    <t>10-50 days</t>
+  </si>
+  <si>
+    <t>10-60 days</t>
+  </si>
+  <si>
+    <t>Peak size</t>
+  </si>
+  <si>
+    <t>1-2.5°</t>
+  </si>
+  <si>
+    <t>1-3.5°</t>
+  </si>
+  <si>
+    <t>Mid-season contamination event</t>
+  </si>
+  <si>
+    <t>Early season contamination event</t>
+  </si>
+  <si>
+    <t>0.3-0.6 of north</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +224,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -206,6 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,83 +597,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3951DD3F-EDEE-944C-BF16-1F50DE6E0AEE}">
-  <dimension ref="A2:J6"/>
+  <dimension ref="A2:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -607,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36407D88-BFE0-8C4D-9C5C-0EAE5D42A991}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,72 +840,72 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="Q1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -752,7 +970,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -817,7 +1035,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
